--- a/VersionRecords/Version 5.0.4.3 20161028/版本Bug和特性计划及评审表v5.0.4.3_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4.3 20161028/版本Bug和特性计划及评审表v5.0.4.3_马丁组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Bugfixs</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>房东PC</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -189,12 +185,32 @@
     <t>李萌</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>房态图菜单样式统一</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bugfixs</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻信用定时器更新</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -305,6 +321,20 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -441,7 +471,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -460,6 +490,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -649,13 +691,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="12">
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
     <cellStyle name="常规 3 12" xfId="4"/>
     <cellStyle name="常规 4" xfId="7"/>
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 9" xfId="3"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1030,7 +1076,7 @@
   <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1138,10 +1184,10 @@
         <v>45</v>
       </c>
       <c r="E2" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>46</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>47</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>19</v>
@@ -1157,13 +1203,13 @@
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="N2" s="31" t="s">
         <v>49</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>50</v>
       </c>
       <c r="O2" s="39"/>
       <c r="P2" s="32"/>
@@ -1175,20 +1221,46 @@
       <c r="V2" s="43"/>
     </row>
     <row r="3" spans="1:22" s="24" customFormat="1" ht="15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="32">
+        <v>42671</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="32">
+        <v>42671</v>
+      </c>
       <c r="K3" s="31"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
+      <c r="L3" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>49</v>
+      </c>
       <c r="O3" s="39"/>
       <c r="P3" s="32"/>
       <c r="Q3" s="39"/>
@@ -1199,20 +1271,46 @@
       <c r="V3" s="43"/>
     </row>
     <row r="4" spans="1:22" s="24" customFormat="1" ht="15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="32">
+        <v>42671</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="32">
+        <v>42671</v>
+      </c>
       <c r="K4" s="31"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+      <c r="L4" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>49</v>
+      </c>
       <c r="O4" s="39"/>
       <c r="P4" s="32"/>
       <c r="Q4" s="39"/>

--- a/VersionRecords/Version 5.0.4.3 20161028/版本Bug和特性计划及评审表v5.0.4.3_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4.3 20161028/版本Bug和特性计划及评审表v5.0.4.3_马丁组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="15920"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.4.2新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -203,6 +203,18 @@
   </si>
   <si>
     <t>芝麻信用定时器更新</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bugfixs</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC集中式房间录入房间号验证</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +483,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -502,6 +514,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -691,7 +709,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="14">
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
     <cellStyle name="常规 3 12" xfId="4"/>
@@ -700,8 +718,10 @@
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1076,7 +1096,7 @@
   <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1321,20 +1341,46 @@
       <c r="V4" s="43"/>
     </row>
     <row r="5" spans="1:22" s="24" customFormat="1" ht="15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="32">
+        <v>42671</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="32">
+        <v>42671</v>
+      </c>
       <c r="K5" s="31"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
+      <c r="L5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>49</v>
+      </c>
       <c r="O5" s="39"/>
       <c r="P5" s="32"/>
       <c r="Q5" s="39"/>

--- a/VersionRecords/Version 5.0.4.3 20161028/版本Bug和特性计划及评审表v5.0.4.3_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4.3 20161028/版本Bug和特性计划及评审表v5.0.4.3_马丁组.xlsx
@@ -12,7 +12,7 @@
     <sheet name="配置文件（生产环境）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4.2新特性|Fix Bug'!$A$1:$U$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4.2新特性|Fix Bug'!$A$1:$U$18</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -186,18 +186,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>重要</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>房态图菜单样式统一</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Bugfixs</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -215,6 +203,18 @@
   </si>
   <si>
     <t>房东PC集中式房间录入房间号验证</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +483,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,6 +520,18 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -709,7 +721,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="18">
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
     <cellStyle name="常规 3 12" xfId="4"/>
@@ -719,9 +731,13 @@
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1093,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V180"/>
+  <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A4" sqref="A4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1204,7 +1220,7 @@
         <v>45</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>46</v>
@@ -1231,9 +1247,15 @@
       <c r="N2" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="39"/>
+      <c r="O2" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="32">
+        <v>42671</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="R2" s="36"/>
       <c r="S2" s="36"/>
       <c r="T2" s="45"/>
@@ -1245,16 +1267,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>53</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>46</v>
@@ -1281,9 +1303,15 @@
       <c r="N3" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="39"/>
+      <c r="O3" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="32">
+        <v>42671</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="R3" s="36"/>
       <c r="S3" s="36"/>
       <c r="T3" s="45"/>
@@ -1304,10 +1332,10 @@
         <v>54</v>
       </c>
       <c r="E4" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>53</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>46</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>19</v>
@@ -1340,57 +1368,31 @@
       <c r="U4" s="44"/>
       <c r="V4" s="43"/>
     </row>
-    <row r="5" spans="1:22" s="24" customFormat="1" ht="15">
-      <c r="A5" s="29">
-        <v>4</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="32">
-        <v>42671</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="32">
-        <v>42671</v>
-      </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>49</v>
-      </c>
+    <row r="5" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
       <c r="O5" s="39"/>
       <c r="P5" s="32"/>
       <c r="Q5" s="39"/>
       <c r="R5" s="36"/>
       <c r="S5" s="36"/>
       <c r="T5" s="45"/>
-      <c r="U5" s="44"/>
+      <c r="U5" s="52"/>
       <c r="V5" s="43"/>
     </row>
-    <row r="6" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:22" s="24" customFormat="1" ht="15">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="47"/>
@@ -1411,10 +1413,10 @@
       <c r="R6" s="36"/>
       <c r="S6" s="36"/>
       <c r="T6" s="45"/>
-      <c r="U6" s="52"/>
+      <c r="U6" s="53"/>
       <c r="V6" s="43"/>
     </row>
-    <row r="7" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="7" spans="1:22" s="24" customFormat="1" ht="16.5" customHeight="1">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="47"/>
@@ -1429,16 +1431,16 @@
       <c r="L7" s="46"/>
       <c r="M7" s="50"/>
       <c r="N7" s="50"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="39"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="46"/>
       <c r="R7" s="36"/>
       <c r="S7" s="36"/>
       <c r="T7" s="45"/>
-      <c r="U7" s="53"/>
+      <c r="U7" s="52"/>
       <c r="V7" s="43"/>
     </row>
-    <row r="8" spans="1:22" s="24" customFormat="1" ht="16.5" customHeight="1">
+    <row r="8" spans="1:22" s="24" customFormat="1" ht="15">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="47"/>
@@ -1459,7 +1461,7 @@
       <c r="R8" s="36"/>
       <c r="S8" s="36"/>
       <c r="T8" s="45"/>
-      <c r="U8" s="52"/>
+      <c r="U8" s="53"/>
       <c r="V8" s="43"/>
     </row>
     <row r="9" spans="1:22" s="24" customFormat="1" ht="15">
@@ -1514,40 +1516,40 @@
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="47"/>
-      <c r="D11" s="49"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
       <c r="T11" s="45"/>
-      <c r="U11" s="53"/>
+      <c r="U11" s="42"/>
       <c r="V11" s="43"/>
     </row>
     <row r="12" spans="1:22" s="24" customFormat="1" ht="15">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="31"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="31"/>
       <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="32"/>
       <c r="K12" s="31"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="39"/>
       <c r="O12" s="39"/>
       <c r="P12" s="32"/>
@@ -1555,7 +1557,7 @@
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
       <c r="T12" s="45"/>
-      <c r="U12" s="42"/>
+      <c r="U12" s="39"/>
       <c r="V12" s="43"/>
     </row>
     <row r="13" spans="1:22" s="24" customFormat="1" ht="15">
@@ -1576,19 +1578,19 @@
       <c r="O13" s="39"/>
       <c r="P13" s="32"/>
       <c r="Q13" s="39"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
       <c r="T13" s="45"/>
-      <c r="U13" s="39"/>
+      <c r="U13" s="42"/>
       <c r="V13" s="43"/>
     </row>
     <row r="14" spans="1:22" s="24" customFormat="1" ht="15">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="56"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="57"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
       <c r="I14" s="31"/>
@@ -1596,7 +1598,7 @@
       <c r="K14" s="31"/>
       <c r="L14" s="39"/>
       <c r="M14" s="31"/>
-      <c r="N14" s="39"/>
+      <c r="N14" s="31"/>
       <c r="O14" s="39"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="39"/>
@@ -1615,7 +1617,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
       <c r="H15" s="32"/>
-      <c r="I15" s="31"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="32"/>
       <c r="K15" s="31"/>
       <c r="L15" s="39"/>
@@ -1687,7 +1689,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="32"/>
       <c r="K18" s="31"/>
       <c r="L18" s="39"/>
@@ -1729,13 +1731,13 @@
     <row r="20" spans="1:22" s="24" customFormat="1" ht="15">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
-      <c r="C20" s="47"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="30"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
       <c r="H20" s="32"/>
-      <c r="I20" s="31"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="32"/>
       <c r="K20" s="31"/>
       <c r="L20" s="39"/>
@@ -1746,7 +1748,7 @@
       <c r="Q20" s="39"/>
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
-      <c r="T20" s="45"/>
+      <c r="T20" s="36"/>
       <c r="U20" s="42"/>
       <c r="V20" s="43"/>
     </row>
@@ -1775,27 +1777,27 @@
       <c r="V21" s="43"/>
     </row>
     <row r="22" spans="1:22" s="24" customFormat="1" ht="15">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="39"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="34"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
       <c r="T22" s="36"/>
-      <c r="U22" s="42"/>
+      <c r="U22" s="34"/>
       <c r="V22" s="43"/>
     </row>
     <row r="23" spans="1:22" s="24" customFormat="1" ht="15">
@@ -1822,29 +1824,28 @@
       <c r="U23" s="34"/>
       <c r="V23" s="43"/>
     </row>
-    <row r="24" spans="1:22" s="24" customFormat="1" ht="15">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="33"/>
+    <row r="24" spans="1:22" ht="15">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="34"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="37"/>
       <c r="R24" s="36"/>
       <c r="S24" s="36"/>
       <c r="T24" s="36"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="43"/>
+      <c r="U24" s="37"/>
     </row>
     <row r="25" spans="1:22" ht="15">
       <c r="A25" s="36"/>
@@ -3095,7 +3096,7 @@
       <c r="D79" s="37"/>
       <c r="E79" s="36"/>
       <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
+      <c r="G79" s="36"/>
       <c r="H79" s="38"/>
       <c r="I79" s="36"/>
       <c r="J79" s="38"/>
@@ -3226,13 +3227,13 @@
       <c r="T84" s="36"/>
       <c r="U84" s="37"/>
     </row>
-    <row r="85" spans="1:21" ht="15">
+    <row r="85" spans="1:21">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
       <c r="D85" s="37"/>
       <c r="E85" s="36"/>
-      <c r="F85" s="31"/>
+      <c r="F85" s="36"/>
       <c r="G85" s="36"/>
       <c r="H85" s="38"/>
       <c r="I85" s="36"/>
@@ -4624,9 +4625,6 @@
       <c r="O145" s="36"/>
       <c r="P145" s="38"/>
       <c r="Q145" s="37"/>
-      <c r="R145" s="36"/>
-      <c r="S145" s="36"/>
-      <c r="T145" s="36"/>
       <c r="U145" s="37"/>
     </row>
     <row r="146" spans="1:21">
@@ -5309,28 +5307,8 @@
       <c r="Q179" s="37"/>
       <c r="U179" s="37"/>
     </row>
-    <row r="180" spans="1:21">
-      <c r="A180" s="36"/>
-      <c r="B180" s="36"/>
-      <c r="C180" s="36"/>
-      <c r="D180" s="37"/>
-      <c r="E180" s="36"/>
-      <c r="F180" s="36"/>
-      <c r="G180" s="36"/>
-      <c r="H180" s="38"/>
-      <c r="I180" s="36"/>
-      <c r="J180" s="38"/>
-      <c r="K180" s="41"/>
-      <c r="L180" s="36"/>
-      <c r="M180" s="36"/>
-      <c r="N180" s="36"/>
-      <c r="O180" s="36"/>
-      <c r="P180" s="38"/>
-      <c r="Q180" s="37"/>
-      <c r="U180" s="37"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:U19"/>
+  <autoFilter ref="A1:U18"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
